--- a/biology/Zoologie/Buse_tricolore/Buse_tricolore.xlsx
+++ b/biology/Zoologie/Buse_tricolore/Buse_tricolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranoaetus polyosoma
 La Buse tricolore (Geranoaetus polyosoma) ou Aguilucho, est une espèce d'oiseaux de la famille des Accipitridae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle mesure 44 à 48 cm. et la femelle plus grande en fait 50 à 52. Chez les adultes, le plumage est rosé sur les épaules, gris sur le dos, et blanc sur le ventre. Sa caractéristique la plus saillante est une touffe noire au bout de la queue.
 Les exemplaires jeunes gardent pendant deux ans un plumage rayé. Les pattes sont jaunes.
@@ -544,7 +558,9 @@
           <t>Habitat et comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce rapace habite les matorrals, les bois, accidents de terrain et les plaines arborées.
 C'est un chasseur presque extraordinaire.
@@ -578,7 +594,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En Argentine: il est répandu dans tout le pays, là où il y a des terrains montagneux, notamment en Patagonie et dans les cañons du nord du pays.
 Aussi, au Chili (plus qu’en Argentine), Perou, Equateur, Colombie.
@@ -610,7 +628,9 @@
           <t>Situation écologique actuelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Du point de vue écologique, les terrains montagneux qu'il fréquente sont les moins modifiables par l'action humaine. Ceci donne un bon équilibre à l'espèce et son futur semble assuré.
 </t>
@@ -641,7 +661,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 3 pour les sous-espèces, 2011) du Congrès ornithologique international, cette espèce est constituée par trois sous-espèces :
 Geranoaetus polyosoma polyosoma (Quoy &amp; Gaimard, 1824) ;
